--- a/analysis/ondine/ondine.xlsx
+++ b/analysis/ondine/ondine.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>A</t>
   </si>
@@ -147,9 +147,6 @@
     <t xml:space="preserve">D lydian derived from half step expantion </t>
   </si>
   <si>
-    <t>from whole tone sc 0</t>
-  </si>
-  <si>
     <t>D lydian ostinato</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>G ostinato</t>
   </si>
   <si>
-    <t>chromatic line rises to G# completing all12 chromatic tones</t>
-  </si>
-  <si>
     <t xml:space="preserve">chromatic line </t>
   </si>
   <si>
@@ -334,6 +328,21 @@
   </si>
   <si>
     <t>(in common between oct 0 and 1)</t>
+  </si>
+  <si>
+    <t>chromatic line rises to G# completing all 12 chromatic tones</t>
+  </si>
+  <si>
+    <t>5th more vivid</t>
+  </si>
+  <si>
+    <t>3rd c.vivid</t>
+  </si>
+  <si>
+    <t>of the whole tone scale 0</t>
+  </si>
+  <si>
+    <t>6th whole tone 0</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -550,6 +559,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -577,8 +589,8 @@
       <xdr:rowOff>72960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85749</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1126172</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -622,7 +634,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1150149</xdr:colOff>
+      <xdr:colOff>637264</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>58560</xdr:rowOff>
     </xdr:to>
@@ -666,7 +678,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>964869</xdr:colOff>
+      <xdr:colOff>451984</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -710,7 +722,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1030628</xdr:colOff>
+      <xdr:colOff>693590</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>53760</xdr:rowOff>
     </xdr:to>
@@ -754,7 +766,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1142949</xdr:colOff>
+      <xdr:colOff>630064</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>51360</xdr:rowOff>
     </xdr:to>
@@ -798,7 +810,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>957669</xdr:colOff>
+      <xdr:colOff>444784</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>170880</xdr:rowOff>
     </xdr:to>
@@ -1370,22 +1382,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="20" width="20" customWidth="1"/>
+    <col min="2" max="20" width="21.6640625" customWidth="1"/>
     <col min="21" max="27" width="18.6640625" customWidth="1"/>
     <col min="37" max="37" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1549,7 +1560,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="10"/>
@@ -1612,7 +1623,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1675,7 +1686,7 @@
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1801,7 +1812,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1942,7 +1953,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1950,7 +1961,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="20" t="s">
@@ -1958,7 +1969,7 @@
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="1"/>
@@ -1979,15 +1990,15 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -2012,37 +2023,37 @@
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="1"/>
@@ -2064,7 +2075,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -2077,7 +2088,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="4"/>
@@ -2106,7 +2117,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -2137,7 +2148,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
@@ -2168,11 +2179,11 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="1"/>
@@ -2203,7 +2214,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T23" s="10"/>
       <c r="U23" s="1"/>
@@ -2234,7 +2245,7 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="1"/>
@@ -2308,7 +2319,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="20" t="s">
@@ -2316,7 +2327,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="20" t="s">
@@ -2326,7 +2337,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="1"/>
@@ -2347,7 +2358,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
@@ -2357,7 +2368,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2392,7 +2403,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2423,7 +2434,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2454,13 +2465,13 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="1"/>
@@ -2487,7 +2498,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2512,17 +2523,17 @@
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2549,13 +2560,13 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2582,13 +2593,13 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2688,19 +2699,19 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="20" t="s">
@@ -2723,23 +2734,23 @@
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9" t="s">
@@ -2748,7 +2759,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="10"/>
@@ -2764,7 +2775,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2776,7 +2787,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -2797,11 +2808,11 @@
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -2830,13 +2841,13 @@
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2844,7 +2855,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -2870,14 +2881,14 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -3054,7 +3065,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -3083,7 +3094,7 @@
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -3148,7 +3159,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -3156,7 +3167,9 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
+      <c r="M49" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="N49" s="9"/>
       <c r="O49" s="10"/>
       <c r="P49" s="1"/>
@@ -3179,7 +3192,9 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3208,7 +3223,9 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="H51" s="9"/>
       <c r="I51" s="21"/>
       <c r="J51" s="9"/>
@@ -3267,7 +3284,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>

--- a/analysis/ondine/ondine.xlsx
+++ b/analysis/ondine/ondine.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>A</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Eb augumented triad(derived from 19-20)</t>
   </si>
   <si>
-    <t>A-Eb tritone, 2nd c.</t>
-  </si>
-  <si>
     <t>Eb lydian: chromatic transformation of the whole tone elements of the D lydian(m 26)</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>Pattern clearly recognizable as in 30-31</t>
   </si>
   <si>
-    <t>octatonic scale 2, whole tone 1</t>
-  </si>
-  <si>
     <t>shades in 4th c</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>Octatonic 0 motif O</t>
   </si>
   <si>
-    <t xml:space="preserve">octatonic 1 </t>
-  </si>
-  <si>
     <t>F#-C#-G left, tritone</t>
   </si>
   <si>
@@ -279,9 +270,6 @@
     <t>D#(Eb)-F#</t>
   </si>
   <si>
-    <t>octatonic 1</t>
-  </si>
-  <si>
     <t>oct 0 - oct1 fragments alternation</t>
   </si>
   <si>
@@ -336,13 +324,34 @@
     <t>5th more vivid</t>
   </si>
   <si>
-    <t>3rd c.vivid</t>
-  </si>
-  <si>
     <t>of the whole tone scale 0</t>
   </si>
   <si>
     <t>6th whole tone 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd c.vivid, no </t>
+  </si>
+  <si>
+    <t>fusion of D triad and F# triad D F# A# augumented</t>
+  </si>
+  <si>
+    <t>augumented triad on F? 7maj?</t>
+  </si>
+  <si>
+    <t>Tritone C#-G</t>
+  </si>
+  <si>
+    <t>A-Eb tritone, 2nd c., augumented triads 3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> whole tone 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">octatonic 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -716,15 +725,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>96240</xdr:rowOff>
+      <xdr:colOff>73269</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>37625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>693590</xdr:colOff>
+      <xdr:colOff>766859</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>53760</xdr:rowOff>
+      <xdr:rowOff>170991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -747,8 +756,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20213040"/>
-          <a:ext cx="7553348" cy="6541200"/>
+          <a:off x="73269" y="19732394"/>
+          <a:ext cx="7551590" cy="6287982"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1382,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,7 +1405,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1560,7 +1569,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="10"/>
@@ -1623,7 +1632,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1686,7 +1695,7 @@
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1782,7 +1791,9 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1842,7 +1853,9 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
@@ -1990,7 +2003,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
@@ -2029,7 +2042,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
@@ -2053,7 +2066,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="1"/>
@@ -2088,7 +2101,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="4"/>
@@ -2337,7 +2350,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="1"/>
@@ -2368,7 +2381,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2403,7 +2416,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2434,7 +2447,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2465,13 +2478,13 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="1"/>
@@ -2498,7 +2511,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2533,7 +2546,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2566,7 +2579,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2599,7 +2612,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2699,19 +2712,19 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="20" t="s">
@@ -2734,23 +2747,23 @@
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9" t="s">
@@ -2759,7 +2772,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="10"/>
@@ -2775,7 +2788,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2787,7 +2800,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -2808,11 +2821,11 @@
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -2841,13 +2854,13 @@
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2855,7 +2868,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -2881,14 +2894,14 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -3065,7 +3078,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -3094,14 +3107,16 @@
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3159,7 +3174,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -3168,7 +3183,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N49" s="9"/>
       <c r="O49" s="10"/>
@@ -3193,7 +3208,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3224,7 +3239,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="21"/>

--- a/analysis/ondine/ondine.xlsx
+++ b/analysis/ondine/ondine.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
-  <si>
-    <t>A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
   <si>
     <t>Intro</t>
   </si>
@@ -42,18 +39,6 @@
     <t>Rubato,</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B'</t>
-  </si>
-  <si>
-    <t>A'</t>
-  </si>
-  <si>
     <t>Octa motif O</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
     <t>B -&gt; Bb whole tone 1</t>
   </si>
   <si>
-    <t>The "odd" note F belongs to the whole tone sc 1 (6th c.)</t>
-  </si>
-  <si>
     <t>alternation F/F#, Bb/B</t>
   </si>
   <si>
@@ -129,9 +111,6 @@
     <t>whole tone sc.0 (red 6th)</t>
   </si>
   <si>
-    <t>Bb dominant 7th-&gt; oct 2</t>
-  </si>
-  <si>
     <t>4th c. change in phase</t>
   </si>
   <si>
@@ -168,12 +147,6 @@
     <t xml:space="preserve">whole tone 1 </t>
   </si>
   <si>
-    <t>over descending bass?</t>
-  </si>
-  <si>
-    <t>violet section coeff3?</t>
-  </si>
-  <si>
     <t>same theme of mm 16-17</t>
   </si>
   <si>
@@ -330,15 +303,6 @@
     <t>6th whole tone 0</t>
   </si>
   <si>
-    <t xml:space="preserve">3rd c.vivid, no </t>
-  </si>
-  <si>
-    <t>fusion of D triad and F# triad D F# A# augumented</t>
-  </si>
-  <si>
-    <t>augumented triad on F? 7maj?</t>
-  </si>
-  <si>
     <t>Tritone C#-G</t>
   </si>
   <si>
@@ -352,6 +316,51 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>The oct 0 odd note F belongs to the whole tone sc 1 (6th c.)</t>
+  </si>
+  <si>
+    <t>over descending bass</t>
+  </si>
+  <si>
+    <t>fusion of D triad and F# triad D F# A#--&gt; augumented triad</t>
+  </si>
+  <si>
+    <t>3rd c.vivid</t>
+  </si>
+  <si>
+    <t>A  ab</t>
+  </si>
+  <si>
+    <t>Bb dominant 7th-&gt; oct 1</t>
+  </si>
+  <si>
+    <t>augumented triad on F? violet section coeff3?</t>
+  </si>
+  <si>
+    <t>this alternation of otc scales is a middle ground between the two whole tone scale poles 1-&gt;0</t>
+  </si>
+  <si>
+    <t>D lydian is partially a confluence of whole tone 0 and 1</t>
+  </si>
+  <si>
+    <t>D-E-F#-G# (whole tone 0) +  A-B-C#(whole tone 1)</t>
+  </si>
+  <si>
+    <t>C b'</t>
+  </si>
+  <si>
+    <t>A' a'</t>
+  </si>
+  <si>
+    <t>yellowish shades in the 4th coefficient: looking at the score it is possible to notice that notes with more duration belong to oct 2 (see for instance quarter notes in mm. 17 and 27)</t>
+  </si>
+  <si>
+    <t>B  c</t>
+  </si>
+  <si>
+    <t>B' c' b'</t>
   </si>
 </sst>
 </file>
@@ -509,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -570,6 +579,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,6 +864,379 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>783772</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>118035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112486</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>136178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CasellaDiTesto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25535325" y="8186270"/>
+          <a:ext cx="8920949" cy="8982849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT"/>
+            <a:t>From</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t> the preludes book no.2,  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT"/>
+            <a:t>"Ondine"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t> (1913)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT"/>
+            <a:t> is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t> inspired from literature and visual art depicting Undines, capricious water nymphs who maliciously enter the real word to delight and frustrate those who encounter, before vanishing again into dust. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The words and pictures in this work of literature and visual art likely appealed to Debussy’s sense of color, imagination, and wit:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in "Ondine"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> the composer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> represents the contrast between natural and supernatural on different layers.[0]</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t>This piece </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT"/>
+            <a:t>marks "one of Debussy's most extreme essays in discontinuity" [ ], painting a picture of ambiguity:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> it consists of gestures and motivic cells more than themes, all of them frequently juxtaposed without any continuity(see in the table: Octatonic motif O, Lydian theme, Tritone theme). Moreover, the different sections are often outside of a clear key centre.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT"/>
+            <a:t>However,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t> under the surface of a seemingly fragmented music lies an excellently organized construction, which can also be appreciated observing the wavescape plots. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tonal formulas and functional relationships dissolve and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> become </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>subordinate to new pitch set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> interactions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. This occurs not as a conscious rejection of tonality, but rather as a consequence of the colors, sonorities, moods employed to evoke the  "Ondine"'s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>character.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t>[1], referring to "Ondines", states: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT"/>
+            <a:t>"Their mythical appeal, their allusion to natural elements of the earth and fluid associations of water, and their dual identity in the real and unreal worlds are all central to the compositional process in “Ondine”. The dichotomy between real and imaginary realms ascribed to mythology is a symbolic link to the conflict between vestigial references to tonality and total dissolution."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t>The piece is based on the contrast between the two whole tone scale poles and between related octatonic segments. By means of common pitches and the introduction of odd notes in scale fragments, the music moves to different pitch sets to create progression. The fusion between the two poles and octatonic sets determines also the emergence of the diatonic sets, such as D-Lydian set (the most lyrical theme appearing in the piece) or the final D section[1]. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t>Looking at the different hierarchical levels of the coefficients, it is clearly visible that the 5th, besides being very fragmented on the surface(lowest) level,  it is also faded in the highest area, while octatonic and whole tone/augumented structures provide a larger and more uniform context.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t>The phases of the 4th coefficient </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>well </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t>represent the combinations and progressions of the different pitch sets, while in the 6th the alternation between the two poles is clearly discernible. It is also possible to observe how almost all the coefficients present a very fragmented structure on the lowest leveland therefore a high entropy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT"/>
+            <a:t>On a large scale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" baseline="0"/>
+            <a:t>, we can observe a symmetrical arch form in which each specular section contains the same number of bars(A B C B' A') . This macrosections can be further sudivided, identifying a Rondo form(a b c b' c' b' a'), which is curiosly visible in the 5th coefficient sections. The contrast between the natural and supernatural world is therefore expressed also with the combination of octatonic and whole thone forms with the traditional Rondo form[1].</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1391,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="F32" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,7 +1790,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1494,10 +1879,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
@@ -1554,10 +1939,10 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1569,7 +1954,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="10"/>
@@ -1590,23 +1975,23 @@
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="10"/>
@@ -1627,12 +2012,12 @@
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1660,12 +2045,12 @@
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1674,7 +2059,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="10"/>
@@ -1695,16 +2080,16 @@
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1728,7 +2113,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1737,7 +2122,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1761,7 +2146,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1796,7 +2181,9 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1822,9 +2209,7 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1854,10 +2239,10 @@
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1885,10 +2270,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="17">
         <v>14</v>
@@ -1955,18 +2340,18 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1974,15 +2359,15 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="1"/>
@@ -1999,19 +2384,19 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -2021,7 +2406,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="1"/>
@@ -2036,37 +2421,37 @@
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="1"/>
@@ -2083,12 +2468,12 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -2101,7 +2486,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="4"/>
@@ -2117,7 +2502,9 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2130,7 +2517,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -2148,7 +2535,9 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2161,7 +2550,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
@@ -2180,7 +2569,9 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2192,11 +2583,11 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="1"/>
@@ -2227,7 +2618,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="T23" s="10"/>
       <c r="U23" s="1"/>
@@ -2258,7 +2649,7 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="1"/>
@@ -2271,10 +2662,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25" s="17">
         <v>32</v>
@@ -2329,28 +2720,28 @@
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="1"/>
@@ -2371,23 +2762,23 @@
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="1"/>
@@ -2408,7 +2799,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2416,7 +2807,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2447,7 +2838,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2478,13 +2869,13 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="1"/>
@@ -2511,7 +2902,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2536,17 +2927,17 @@
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2573,13 +2964,13 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2606,13 +2997,13 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2635,10 +3026,10 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C35" s="17">
         <v>44</v>
@@ -2705,30 +3096,30 @@
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -2747,32 +3138,32 @@
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="10"/>
@@ -2788,7 +3179,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2800,7 +3191,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -2821,11 +3212,11 @@
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -2854,13 +3245,13 @@
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2868,7 +3259,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -2894,14 +3285,14 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -2978,10 +3369,10 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C44" s="17">
         <v>62</v>
@@ -3039,12 +3430,12 @@
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -3075,10 +3466,10 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -3086,7 +3477,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N46" s="9"/>
       <c r="O46" s="10"/>
@@ -3107,15 +3498,15 @@
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -3145,7 +3536,9 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3174,7 +3567,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -3183,7 +3576,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N49" s="9"/>
       <c r="O49" s="10"/>
@@ -3207,9 +3600,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3239,7 +3630,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="21"/>

--- a/analysis/ondine/ondine.xlsx
+++ b/analysis/ondine/ondine.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Digital Musicology\debussyproj\Group-5-Debussy-Pitch-Scapes\analysis\ondine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695CE0C4-4818-4232-AA89-F4EB3F680933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -366,7 +367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -583,9 +584,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,7 +621,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Immagine 13"/>
+        <xdr:cNvPr id="14" name="Immagine 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -661,7 +671,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Immagine 14"/>
+        <xdr:cNvPr id="15" name="Immagine 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -705,7 +721,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Immagine 15"/>
+        <xdr:cNvPr id="16" name="Immagine 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -749,7 +771,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Immagine 16"/>
+        <xdr:cNvPr id="17" name="Immagine 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -793,7 +821,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Immagine 17"/>
+        <xdr:cNvPr id="18" name="Immagine 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -837,7 +871,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Immagine 18"/>
+        <xdr:cNvPr id="19" name="Immagine 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -881,7 +921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CasellaDiTesto 1"/>
+        <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1239,6 +1285,534 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>65100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA4CD0F-83AB-454E-8BB5-F3F70FF10284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="29089349"/>
+          <a:ext cx="7105650" cy="6599251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>775855</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>332508</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C3703-FD1E-4C18-A58D-4F3469BF3C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9130146" y="27528983"/>
+          <a:ext cx="6968835" cy="6262254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720435</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180108</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>148192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A5D89BE-7FC3-4AC0-897E-4EC57735EF45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17969344" y="27570546"/>
+          <a:ext cx="6871855" cy="6258046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249381</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>401781</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>110312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F11028F-D2DA-4983-91EA-FB535BE46D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="249381" y="34553236"/>
+          <a:ext cx="7024255" cy="6621949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>734292</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>748146</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>24466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89BC3DE-2C60-40E0-A43C-08BB095427C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17983201" y="34511672"/>
+          <a:ext cx="7426036" cy="6757776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1243116</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>118926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DD394A-F370-47A0-A208-2174B455713B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26334720" y="18288000"/>
+          <a:ext cx="6790476" cy="8714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>330644</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>155093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AFB2BA-BAA3-46F6-8549-F68DBA95C5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34442400" y="18470880"/>
+          <a:ext cx="6609524" cy="8933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>370667</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>69360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9468491F-A88E-4E9B-A430-BAB8C406A51B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41940480" y="18318480"/>
+          <a:ext cx="6466667" cy="9000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>29680</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>50331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139AC44D-A57C-4B20-8C44-1616F77BBC31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49590960" y="18470880"/>
+          <a:ext cx="6400000" cy="8828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>972651</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>57928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF8A02B-DB38-404B-B453-60F046BEFFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26426160" y="27980640"/>
+          <a:ext cx="6428571" cy="9019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>216358</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>130339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F35D2C-0713-4ADF-B02F-18FC3338DC37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34442400" y="27858720"/>
+          <a:ext cx="6495238" cy="8847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>437333</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>174141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567E5998-FD5E-4D6B-B42E-D29AAFACE967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41940480" y="27980640"/>
+          <a:ext cx="6533333" cy="8952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1259,7 +1833,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Immagine 7"/>
+        <xdr:cNvPr id="8" name="Immagine 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1303,7 +1883,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Immagine 8"/>
+        <xdr:cNvPr id="9" name="Immagine 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1347,7 +1933,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Immagine 9"/>
+        <xdr:cNvPr id="10" name="Immagine 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1391,7 +1983,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Immagine 10"/>
+        <xdr:cNvPr id="11" name="Immagine 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1435,7 +2033,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Immagine 11"/>
+        <xdr:cNvPr id="12" name="Immagine 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1479,7 +2083,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Immagine 12"/>
+        <xdr:cNvPr id="13" name="Immagine 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1773,14 +2383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F32" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="K92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BB191" sqref="BB191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" style="3" customWidth="1"/>
     <col min="2" max="20" width="21.6640625" customWidth="1"/>
@@ -4482,6 +5092,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="152" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="I152" s="24">
+        <v>2</v>
+      </c>
+      <c r="O152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="O191">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4490,14 +5119,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="C32" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
